--- a/Data/DataSet_GasPrice_ Outlier_Removed.xlsx
+++ b/Data/DataSet_GasPrice_ Outlier_Removed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>Days</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Weather</t>
+  </si>
+  <si>
+    <t>WSTAT</t>
   </si>
   <si>
     <t>GasPriceStatus</t>
@@ -66,11 +69,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,16 +95,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,7 +126,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,45 +165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +179,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,16 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,7 +248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +272,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,25 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,37 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,61 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,17 +505,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,25 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,31 +578,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,130 +601,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1073,11 +1076,11 @@
     <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="7.85714285714286" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7142857142857" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:9">
+    <row r="1" ht="29.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1108,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>245</v>
       </c>
@@ -1129,13 +1135,16 @@
         <v>5.82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>276</v>
       </c>
@@ -1158,13 +1167,16 @@
         <v>5.24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>304</v>
       </c>
@@ -1187,13 +1199,16 @@
         <v>4.52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>335</v>
       </c>
@@ -1216,13 +1231,16 @@
         <v>3.96</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>365</v>
       </c>
@@ -1245,13 +1263,16 @@
         <v>3.5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>396</v>
       </c>
@@ -1274,13 +1295,16 @@
         <v>3.83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>426</v>
       </c>
@@ -1303,13 +1327,16 @@
         <v>3.8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>457</v>
       </c>
@@ -1332,13 +1359,16 @@
         <v>3.38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>488</v>
       </c>
@@ -1361,13 +1391,16 @@
         <v>3.14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>518</v>
       </c>
@@ -1390,13 +1423,16 @@
         <v>2.99</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>549</v>
       </c>
@@ -1419,13 +1455,16 @@
         <v>4.01</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>579</v>
       </c>
@@ -1448,13 +1487,16 @@
         <v>3.66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>610</v>
       </c>
@@ -1477,13 +1519,16 @@
         <v>5.35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>641</v>
       </c>
@@ -1506,13 +1551,16 @@
         <v>5.83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>669</v>
       </c>
@@ -1535,13 +1583,16 @@
         <v>5.32</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>700</v>
       </c>
@@ -1564,13 +1615,16 @@
         <v>4.29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>730</v>
       </c>
@@ -1593,13 +1647,16 @@
         <v>4.03</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>761</v>
       </c>
@@ -1622,13 +1679,16 @@
         <v>4.14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>791</v>
       </c>
@@ -1651,13 +1711,16 @@
         <v>4.8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>822</v>
       </c>
@@ -1680,13 +1743,16 @@
         <v>4.63</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>853</v>
       </c>
@@ -1709,13 +1775,16 @@
         <v>4.32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>883</v>
       </c>
@@ -1738,13 +1807,16 @@
         <v>3.89</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>914</v>
       </c>
@@ -1767,13 +1839,16 @@
         <v>3.43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>944</v>
       </c>
@@ -1796,13 +1871,16 @@
         <v>3.71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>975</v>
       </c>
@@ -1825,13 +1903,16 @@
         <v>4.25</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>1006</v>
       </c>
@@ -1854,13 +1935,16 @@
         <v>4.49</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>1034</v>
       </c>
@@ -1883,13 +1967,16 @@
         <v>4.09</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>1065</v>
       </c>
@@ -1912,13 +1999,16 @@
         <v>3.97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>1095</v>
       </c>
@@ -1941,13 +2031,16 @@
         <v>4.24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>1126</v>
       </c>
@@ -1970,13 +2063,16 @@
         <v>4.31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>1156</v>
       </c>
@@ -1999,13 +2095,16 @@
         <v>4.54</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>1187</v>
       </c>
@@ -2028,13 +2127,16 @@
         <v>4.42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>1218</v>
       </c>
@@ -2057,13 +2159,16 @@
         <v>4.06</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>1248</v>
       </c>
@@ -2086,13 +2191,16 @@
         <v>3.9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>1279</v>
       </c>
@@ -2115,13 +2223,16 @@
         <v>3.57</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>1309</v>
       </c>
@@ -2144,13 +2255,16 @@
         <v>3.24</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>1340</v>
       </c>
@@ -2173,13 +2287,16 @@
         <v>3.17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>1371</v>
       </c>
@@ -2202,13 +2319,16 @@
         <v>2.67</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>1400</v>
       </c>
@@ -2231,13 +2351,16 @@
         <v>2.51</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>1431</v>
       </c>
@@ -2260,13 +2383,16 @@
         <v>2.17</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>1461</v>
       </c>
@@ -2289,13 +2415,16 @@
         <v>1.95</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>1492</v>
       </c>
@@ -2318,13 +2447,16 @@
         <v>2.43</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>1522</v>
       </c>
@@ -2347,13 +2479,16 @@
         <v>2.46</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>1553</v>
       </c>
@@ -2376,13 +2511,16 @@
         <v>2.95</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>1584</v>
       </c>
@@ -2405,13 +2543,16 @@
         <v>2.84</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>1614</v>
       </c>
@@ -2434,13 +2575,16 @@
         <v>2.85</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>1645</v>
       </c>
@@ -2463,13 +2607,16 @@
         <v>3.32</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>1675</v>
       </c>
@@ -2492,13 +2639,16 @@
         <v>3.54</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>1706</v>
       </c>
@@ -2521,13 +2671,16 @@
         <v>3.34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>1737</v>
       </c>
@@ -2550,13 +2703,16 @@
         <v>3.33</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>1765</v>
       </c>
@@ -2579,13 +2735,16 @@
         <v>3.33</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>1796</v>
       </c>
@@ -2608,13 +2767,16 @@
         <v>3.81</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>1826</v>
       </c>
@@ -2637,13 +2799,16 @@
         <v>4.17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>1857</v>
       </c>
@@ -2666,13 +2831,16 @@
         <v>4.04</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>1887</v>
       </c>
@@ -2695,13 +2863,16 @@
         <v>3.83</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>1918</v>
       </c>
@@ -2724,13 +2895,16 @@
         <v>3.62</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>1949</v>
       </c>
@@ -2753,13 +2927,16 @@
         <v>3.43</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>1979</v>
       </c>
@@ -2782,13 +2959,16 @@
         <v>3.62</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>2010</v>
       </c>
@@ -2811,13 +2991,16 @@
         <v>3.68</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>2040</v>
       </c>
@@ -2840,13 +3023,16 @@
         <v>3.64</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>2071</v>
       </c>
@@ -2869,13 +3055,16 @@
         <v>4.24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>2102</v>
       </c>
@@ -2898,13 +3087,16 @@
         <v>4.71</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>2130</v>
       </c>
@@ -2927,13 +3119,16 @@
         <v>6</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>2161</v>
       </c>
@@ -2956,13 +3151,16 @@
         <v>4.9</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>2191</v>
       </c>
@@ -2985,13 +3183,16 @@
         <v>4.66</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>2222</v>
       </c>
@@ -3014,13 +3215,16 @@
         <v>4.58</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>2252</v>
       </c>
@@ -3043,13 +3247,16 @@
         <v>4.59</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>2283</v>
       </c>
@@ -3072,13 +3279,16 @@
         <v>4.05</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>2314</v>
       </c>
@@ -3101,13 +3311,16 @@
         <v>3.91</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>2344</v>
       </c>
@@ -3130,13 +3343,16 @@
         <v>3.92</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>2375</v>
       </c>
@@ -3159,13 +3375,16 @@
         <v>3.78</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>2405</v>
       </c>
@@ -3188,13 +3407,16 @@
         <v>4.12</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>2436</v>
       </c>
@@ -3217,13 +3439,16 @@
         <v>3.48</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>2467</v>
       </c>
@@ -3246,13 +3471,16 @@
         <v>2.99</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>2495</v>
       </c>
@@ -3275,13 +3503,16 @@
         <v>2.87</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>2526</v>
       </c>
@@ -3304,13 +3535,16 @@
         <v>2.83</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>2556</v>
       </c>
@@ -3333,13 +3567,16 @@
         <v>2.61</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>2587</v>
       </c>
@@ -3362,13 +3599,16 @@
         <v>2.85</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>2617</v>
       </c>
@@ -3391,13 +3631,16 @@
         <v>2.78</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>2648</v>
       </c>
@@ -3420,13 +3663,16 @@
         <v>2.84</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>2679</v>
       </c>
@@ -3449,13 +3695,16 @@
         <v>2.77</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>2709</v>
       </c>
@@ -3478,13 +3727,16 @@
         <v>2.66</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>2740</v>
       </c>
@@ -3507,13 +3759,16 @@
         <v>2.34</v>
       </c>
       <c r="H84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>2770</v>
       </c>
@@ -3536,13 +3791,16 @@
         <v>2.09</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>2801</v>
       </c>
@@ -3565,13 +3823,16 @@
         <v>1.93</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>2832</v>
       </c>
@@ -3594,13 +3855,16 @@
         <v>2.28</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>2861</v>
       </c>
@@ -3623,13 +3887,16 @@
         <v>1.99</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>2892</v>
       </c>
@@ -3652,13 +3919,16 @@
         <v>1.73</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>2922</v>
       </c>
@@ -3681,13 +3951,16 @@
         <v>1.92</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>2953</v>
       </c>
@@ -3710,13 +3983,16 @@
         <v>1.92</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>2983</v>
       </c>
@@ -3739,13 +4015,16 @@
         <v>2.59</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>3014</v>
       </c>
@@ -3768,13 +4047,16 @@
         <v>2.82</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>3045</v>
       </c>
@@ -3797,13 +4079,16 @@
         <v>2.82</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>3075</v>
       </c>
@@ -3826,13 +4111,16 @@
         <v>2.99</v>
       </c>
       <c r="H95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>3106</v>
       </c>
@@ -3855,13 +4143,16 @@
         <v>2.98</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>3136</v>
       </c>
@@ -3884,13 +4175,16 @@
         <v>2.55</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>3167</v>
       </c>
@@ -3913,13 +4207,16 @@
         <v>3.59</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>3198</v>
       </c>
@@ -3942,13 +4239,16 @@
         <v>3.3</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>3226</v>
       </c>
@@ -3971,13 +4271,16 @@
         <v>2.85</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>3257</v>
       </c>
@@ -4000,13 +4303,16 @@
         <v>2.88</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>3287</v>
       </c>
@@ -4029,13 +4335,16 @@
         <v>3.1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>3318</v>
       </c>
@@ -4058,13 +4367,16 @@
         <v>3.15</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>3348</v>
       </c>
@@ -4087,13 +4399,16 @@
         <v>2.98</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="2">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>3379</v>
       </c>
@@ -4116,10 +4431,13 @@
         <v>2.98</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="2:2">

--- a/Data/DataSet_GasPrice_ Outlier_Removed.xlsx
+++ b/Data/DataSet_GasPrice_ Outlier_Removed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Days</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>GasPriceStatus</t>
+  </si>
+  <si>
+    <t>GPSAT</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>WINTER</t>
@@ -803,6 +809,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1064,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+      <selection activeCell="K105" sqref="K105:L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1077,10 +1088,11 @@
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="7.85714285714286" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7142857142857" customWidth="1"/>
+    <col min="10" max="11" width="10.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" spans="1:10">
+    <row r="1" ht="29.25" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,8 +1123,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>245</v>
       </c>
@@ -1135,16 +1153,23 @@
         <v>5.82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
+        <f>IF(J2="HIGH",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>276</v>
       </c>
@@ -1167,16 +1192,23 @@
         <v>5.24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K34" si="0">IF(J3="HIGH",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>304</v>
       </c>
@@ -1199,16 +1231,23 @@
         <v>4.52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>335</v>
       </c>
@@ -1231,16 +1270,23 @@
         <v>3.96</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>365</v>
       </c>
@@ -1263,16 +1309,23 @@
         <v>3.5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>396</v>
       </c>
@@ -1295,16 +1348,23 @@
         <v>3.83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>426</v>
       </c>
@@ -1327,16 +1387,23 @@
         <v>3.8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>457</v>
       </c>
@@ -1359,16 +1426,23 @@
         <v>3.38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>488</v>
       </c>
@@ -1391,16 +1465,23 @@
         <v>3.14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>518</v>
       </c>
@@ -1423,16 +1504,23 @@
         <v>2.99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>549</v>
       </c>
@@ -1455,16 +1543,23 @@
         <v>4.01</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>579</v>
       </c>
@@ -1487,16 +1582,23 @@
         <v>3.66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>610</v>
       </c>
@@ -1519,16 +1621,23 @@
         <v>5.35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>641</v>
       </c>
@@ -1551,16 +1660,23 @@
         <v>5.83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>669</v>
       </c>
@@ -1583,16 +1699,23 @@
         <v>5.32</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>700</v>
       </c>
@@ -1615,16 +1738,23 @@
         <v>4.29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>730</v>
       </c>
@@ -1647,16 +1777,23 @@
         <v>4.03</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>761</v>
       </c>
@@ -1679,16 +1816,23 @@
         <v>4.14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>791</v>
       </c>
@@ -1711,16 +1855,23 @@
         <v>4.8</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>822</v>
       </c>
@@ -1743,16 +1894,23 @@
         <v>4.63</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>853</v>
       </c>
@@ -1775,16 +1933,23 @@
         <v>4.32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>883</v>
       </c>
@@ -1807,16 +1972,23 @@
         <v>3.89</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>914</v>
       </c>
@@ -1839,16 +2011,23 @@
         <v>3.43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>944</v>
       </c>
@@ -1871,16 +2050,23 @@
         <v>3.71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>975</v>
       </c>
@@ -1903,16 +2089,23 @@
         <v>4.25</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>1006</v>
       </c>
@@ -1935,16 +2128,23 @@
         <v>4.49</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>1034</v>
       </c>
@@ -1967,16 +2167,23 @@
         <v>4.09</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>1065</v>
       </c>
@@ -1999,16 +2206,23 @@
         <v>3.97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>1095</v>
       </c>
@@ -2031,16 +2245,23 @@
         <v>4.24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>1126</v>
       </c>
@@ -2063,16 +2284,23 @@
         <v>4.31</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>1156</v>
       </c>
@@ -2095,16 +2323,23 @@
         <v>4.54</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>1187</v>
       </c>
@@ -2127,16 +2362,23 @@
         <v>4.42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>1218</v>
       </c>
@@ -2159,16 +2401,23 @@
         <v>4.06</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>1248</v>
       </c>
@@ -2191,16 +2440,23 @@
         <v>3.9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" ref="K35:K66" si="1">IF(J35="HIGH",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>1279</v>
       </c>
@@ -2223,16 +2479,23 @@
         <v>3.57</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>1309</v>
       </c>
@@ -2255,16 +2518,23 @@
         <v>3.24</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>1340</v>
       </c>
@@ -2287,16 +2557,23 @@
         <v>3.17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>1371</v>
       </c>
@@ -2319,16 +2596,23 @@
         <v>2.67</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>1400</v>
       </c>
@@ -2351,16 +2635,23 @@
         <v>2.51</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>1431</v>
       </c>
@@ -2383,16 +2674,23 @@
         <v>2.17</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>1461</v>
       </c>
@@ -2415,16 +2713,23 @@
         <v>1.95</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>1492</v>
       </c>
@@ -2447,16 +2752,23 @@
         <v>2.43</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>1522</v>
       </c>
@@ -2479,16 +2791,23 @@
         <v>2.46</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>1553</v>
       </c>
@@ -2511,16 +2830,23 @@
         <v>2.95</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>1584</v>
       </c>
@@ -2543,16 +2869,23 @@
         <v>2.84</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>1614</v>
       </c>
@@ -2575,16 +2908,23 @@
         <v>2.85</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>1645</v>
       </c>
@@ -2607,16 +2947,23 @@
         <v>3.32</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>1675</v>
       </c>
@@ -2639,16 +2986,23 @@
         <v>3.54</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>1706</v>
       </c>
@@ -2671,16 +3025,23 @@
         <v>3.34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>1737</v>
       </c>
@@ -2703,16 +3064,23 @@
         <v>3.33</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>1765</v>
       </c>
@@ -2735,16 +3103,23 @@
         <v>3.33</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>1796</v>
       </c>
@@ -2767,16 +3142,23 @@
         <v>3.81</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>1826</v>
       </c>
@@ -2799,16 +3181,23 @@
         <v>4.17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>1857</v>
       </c>
@@ -2831,16 +3220,23 @@
         <v>4.04</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>1887</v>
       </c>
@@ -2863,16 +3259,23 @@
         <v>3.83</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>1918</v>
       </c>
@@ -2895,16 +3298,23 @@
         <v>3.62</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>1949</v>
       </c>
@@ -2927,16 +3337,23 @@
         <v>3.43</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>1979</v>
       </c>
@@ -2959,16 +3376,23 @@
         <v>3.62</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>2010</v>
       </c>
@@ -2991,16 +3415,23 @@
         <v>3.68</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>2040</v>
       </c>
@@ -3023,16 +3454,23 @@
         <v>3.64</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>2071</v>
       </c>
@@ -3055,16 +3493,23 @@
         <v>4.24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>2102</v>
       </c>
@@ -3087,16 +3532,23 @@
         <v>4.71</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I63" s="2">
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>2130</v>
       </c>
@@ -3119,16 +3571,23 @@
         <v>6</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I64" s="2">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>2161</v>
       </c>
@@ -3151,16 +3610,23 @@
         <v>4.9</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2">
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>2191</v>
       </c>
@@ -3183,16 +3649,23 @@
         <v>4.66</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>2222</v>
       </c>
@@ -3215,16 +3688,23 @@
         <v>4.58</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K105" si="2">IF(J67="HIGH",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>2252</v>
       </c>
@@ -3247,16 +3727,23 @@
         <v>4.59</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2">
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>2283</v>
       </c>
@@ -3279,16 +3766,23 @@
         <v>4.05</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" s="2">
         <v>1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>2314</v>
       </c>
@@ -3311,16 +3805,23 @@
         <v>3.91</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I70" s="2">
         <v>1</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>2344</v>
       </c>
@@ -3343,16 +3844,23 @@
         <v>3.92</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>2375</v>
       </c>
@@ -3375,16 +3883,23 @@
         <v>3.78</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>2405</v>
       </c>
@@ -3407,16 +3922,23 @@
         <v>4.12</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>2436</v>
       </c>
@@ -3439,16 +3961,23 @@
         <v>3.48</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>2467</v>
       </c>
@@ -3471,16 +4000,23 @@
         <v>2.99</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I75" s="2">
         <v>1</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>2495</v>
       </c>
@@ -3503,16 +4039,23 @@
         <v>2.87</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>2526</v>
       </c>
@@ -3535,16 +4078,23 @@
         <v>2.83</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>2556</v>
       </c>
@@ -3567,16 +4117,23 @@
         <v>2.61</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>2587</v>
       </c>
@@ -3599,16 +4156,23 @@
         <v>2.85</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>2617</v>
       </c>
@@ -3631,16 +4195,23 @@
         <v>2.78</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I80" s="2">
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>2648</v>
       </c>
@@ -3663,16 +4234,23 @@
         <v>2.84</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="2">
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>2679</v>
       </c>
@@ -3695,16 +4273,23 @@
         <v>2.77</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I82" s="2">
         <v>1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>2709</v>
       </c>
@@ -3727,16 +4312,23 @@
         <v>2.66</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>2740</v>
       </c>
@@ -3759,16 +4351,23 @@
         <v>2.34</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>2770</v>
       </c>
@@ -3791,16 +4390,23 @@
         <v>2.09</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>2801</v>
       </c>
@@ -3823,16 +4429,23 @@
         <v>1.93</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I86" s="2">
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>2832</v>
       </c>
@@ -3855,16 +4468,23 @@
         <v>2.28</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I87" s="2">
         <v>1</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>2861</v>
       </c>
@@ -3887,16 +4507,23 @@
         <v>1.99</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I88" s="2">
         <v>1</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>2892</v>
       </c>
@@ -3919,16 +4546,23 @@
         <v>1.73</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>2922</v>
       </c>
@@ -3951,16 +4585,23 @@
         <v>1.92</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>2953</v>
       </c>
@@ -3983,16 +4624,23 @@
         <v>1.92</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>2983</v>
       </c>
@@ -4015,16 +4663,23 @@
         <v>2.59</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="2">
         <v>1</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>3014</v>
       </c>
@@ -4047,16 +4702,23 @@
         <v>2.82</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>3045</v>
       </c>
@@ -4079,16 +4741,23 @@
         <v>2.82</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" s="2">
         <v>1</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>3075</v>
       </c>
@@ -4111,16 +4780,23 @@
         <v>2.99</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>3106</v>
       </c>
@@ -4143,16 +4819,23 @@
         <v>2.98</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>3136</v>
       </c>
@@ -4175,16 +4858,23 @@
         <v>2.55</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>3167</v>
       </c>
@@ -4207,16 +4897,23 @@
         <v>3.59</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>3198</v>
       </c>
@@ -4239,16 +4936,23 @@
         <v>3.3</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>3226</v>
       </c>
@@ -4271,16 +4975,23 @@
         <v>2.85</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>3257</v>
       </c>
@@ -4303,16 +5014,23 @@
         <v>2.88</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I101" s="2">
         <v>1</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>3287</v>
       </c>
@@ -4335,16 +5053,23 @@
         <v>3.1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>3318</v>
       </c>
@@ -4367,16 +5092,23 @@
         <v>3.15</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>3348</v>
       </c>
@@ -4399,16 +5131,23 @@
         <v>2.98</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" spans="1:12">
       <c r="A105" s="4">
         <v>3379</v>
       </c>
@@ -4431,13 +5170,20 @@
         <v>2.98</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I105" s="4">
         <v>1</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:2">
